--- a/Schematics/laba2/laba2.xlsx
+++ b/Schematics/laba2/laba2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\source\repos\Mutabona\ThirdSemestr\Schematics\laba2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338547F8-AE4F-4964-A338-FD9C60E68CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9DF3B-1451-4CCC-A7E9-75907A5D54CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7140" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="7260" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Id, mA</t>
   </si>
   <si>
     <t>Ud, V</t>
+  </si>
+  <si>
+    <t>Uвх</t>
+  </si>
+  <si>
+    <t>Uвых</t>
+  </si>
+  <si>
+    <t>Rн</t>
+  </si>
+  <si>
+    <t>Uвыхст</t>
   </si>
 </sst>
 </file>
@@ -145,48 +157,46 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Лист1!$B$2:$B$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.68</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.78</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="General">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" formatCode="General">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" formatCode="General">
                   <c:v>0.81</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="General">
                   <c:v>0.82</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="General">
                   <c:v>0.83</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="General">
                   <c:v>0.85</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Ud, V</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -529,7 +539,467 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9764-4980-9F5F-A0F9E18CD10F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="658050096"/>
+        <c:axId val="658049016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="658050096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ud, V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658049016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658049016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Id, micA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658050096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1072,6 +1542,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1105,6 +2078,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C89DF0F-DEC2-126B-530D-6B9CBBA58DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1376,113 +2385,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>2.97</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>7.95</v>
       </c>
       <c r="B3" s="1">
         <v>0.68</v>
       </c>
+      <c r="D3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.33</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>3.04</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>44.6</v>
       </c>
       <c r="B4">
         <v>0.76</v>
       </c>
+      <c r="D4" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>65.599999999999994</v>
       </c>
       <c r="B5">
         <v>0.78</v>
       </c>
+      <c r="D5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>83</v>
       </c>
       <c r="B6">
         <v>0.79</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>33.299999999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>101</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>123</v>
       </c>
       <c r="B8">
         <v>0.81</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>4.46</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>152</v>
       </c>
       <c r="B9">
         <v>0.82</v>
       </c>
+      <c r="D9" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="E9" s="1">
+        <v>58.3</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>5.42</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>194</v>
       </c>
       <c r="B10">
         <v>0.83</v>
       </c>
+      <c r="D10" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="E10" s="1">
+        <v>66.7</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>6.42</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>262</v>
       </c>
       <c r="B11">
         <v>0.85</v>
       </c>
+      <c r="D11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>396</v>
       </c>
       <c r="B12">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>1</v>
+      <c r="D12" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E12" s="1">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/Schematics/laba2/laba2.xlsx
+++ b/Schematics/laba2/laba2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_dod\source\repos\Mutabona\ThirdSemestr\Schematics\laba2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodo2\source\repos\Mutabona\ThirdSemestr\Schematics\laba2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F9DF3B-1451-4CCC-A7E9-75907A5D54CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="7260" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="7260" windowWidth="14616" windowHeight="16308"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,6 +297,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -423,6 +423,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -497,6 +498,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -504,7 +506,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -723,6 +724,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -838,11 +840,22 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Id, micA</a:t>
+                  <a:t>Id, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>A</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -917,6 +930,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -924,7 +938,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2384,16 +2397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>7.95</v>
       </c>
@@ -2447,7 +2460,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>44.6</v>
       </c>
@@ -2467,7 +2480,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>65.599999999999994</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>83</v>
       </c>
@@ -2495,7 +2508,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>101</v>
       </c>
@@ -2515,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>123</v>
       </c>
@@ -2535,7 +2548,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152</v>
       </c>
@@ -2555,7 +2568,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>194</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>262</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>396</v>
       </c>
